--- a/Proyecto/PobladaExcel/JugadoEn(AtleticoNacional).xlsx
+++ b/Proyecto/PobladaExcel/JugadoEn(AtleticoNacional).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Desktop\MBDA\MBDA-\Proyecto\PobladaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F52EE-8BE2-4905-ABDB-82E686E2986C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19914AE-E460-4243-A6C9-D1C657AD5DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2160" yWindow="2265" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
